--- a/rapport/portal/excel/KiE.xlsx
+++ b/rapport/portal/excel/KiE.xlsx
@@ -368,10 +368,10 @@
         <v>100089</v>
       </c>
       <c r="B2" t="n">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="C2" t="n">
-        <v>171</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3">
@@ -379,10 +379,10 @@
         <v>100315</v>
       </c>
       <c r="B3" t="n">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
@@ -390,10 +390,10 @@
         <v>701404</v>
       </c>
       <c r="B4" t="n">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5">
@@ -401,10 +401,10 @@
         <v>4207827</v>
       </c>
       <c r="B5" t="n">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="C5" t="n">
-        <v>183</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6">
@@ -412,10 +412,10 @@
         <v>101823</v>
       </c>
       <c r="B6" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -423,10 +423,10 @@
         <v>4204499</v>
       </c>
       <c r="B7" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -434,7 +434,7 @@
         <v>4204500</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
@@ -445,10 +445,10 @@
         <v>105893</v>
       </c>
       <c r="B9" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -456,10 +456,10 @@
         <v>706264</v>
       </c>
       <c r="B10" t="n">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="C10" t="n">
-        <v>88</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
@@ -467,10 +467,10 @@
         <v>4204998</v>
       </c>
       <c r="B11" t="n">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>108</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12">
@@ -478,10 +478,10 @@
         <v>105502</v>
       </c>
       <c r="B12" t="n">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>123</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13">
@@ -489,10 +489,10 @@
         <v>707264</v>
       </c>
       <c r="B13" t="n">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>69</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14">
@@ -500,10 +500,10 @@
         <v>108355</v>
       </c>
       <c r="B14" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
@@ -511,10 +511,10 @@
         <v>108357</v>
       </c>
       <c r="B15" t="n">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
@@ -522,10 +522,10 @@
         <v>108354</v>
       </c>
       <c r="B16" t="n">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
@@ -533,10 +533,10 @@
         <v>102250</v>
       </c>
       <c r="B17" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
@@ -544,10 +544,10 @@
         <v>102021</v>
       </c>
       <c r="B18" t="n">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>73</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19">
@@ -555,10 +555,10 @@
         <v>4001071</v>
       </c>
       <c r="B19" t="n">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="C19" t="n">
-        <v>115</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20">
@@ -566,10 +566,10 @@
         <v>700263</v>
       </c>
       <c r="B20" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
@@ -577,10 +577,10 @@
         <v>700264</v>
       </c>
       <c r="B21" t="n">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="C21" t="n">
-        <v>82</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22">
@@ -588,10 +588,10 @@
         <v>700330</v>
       </c>
       <c r="B22" t="n">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="C22" t="n">
-        <v>169</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23">
@@ -599,10 +599,10 @@
         <v>700728</v>
       </c>
       <c r="B23" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
@@ -610,10 +610,10 @@
         <v>700721</v>
       </c>
       <c r="B24" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
@@ -621,10 +621,10 @@
         <v>4204082</v>
       </c>
       <c r="B25" t="n">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="C25" t="n">
-        <v>156</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26">
@@ -632,10 +632,10 @@
         <v>708761</v>
       </c>
       <c r="B26" t="n">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="C26" t="n">
-        <v>70</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
